--- a/data/trans_dic/P6903-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6903-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,3%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>25,83; 44,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>14,32; 37,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>38,03; 67,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>29,76; 62,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>22,36; 54,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>16,06; 45,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>22,13; 67,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>34,03; 82,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>27,48; 43,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>17,7; 36,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>39,56; 63,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>37,57; 70,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,82%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>25,57; 37,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>19,2; 30,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>31,01; 43,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>27,32; 40,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>23,87; 40,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>29,56; 46,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>34,09; 52,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>33,05; 46,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>27,05; 36,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>24,26; 34,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>34,17; 44,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>32,62; 41,24</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,56%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>18,98; 40,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>10,26; 35,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>18,96; 43,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>25,05; 51,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>14,04; 35,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>16,66; 45,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>28,98; 51,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>35,77; 54,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>19,01; 34,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>16,44; 36,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>26,45; 43,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>34,04; 49,45</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,08%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>27,22; 35,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>19,43; 29,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>33,69; 44,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>29,57; 41,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>25,12; 37,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>27,66; 41,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>34,78; 48,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>37,34; 48,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>27,72; 34,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,46; 32,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>35,43; 44,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>34,79; 43,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6903-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>42,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>47,76%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,76; 62,78</t>
+          <t>26,64; 59,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,03; 82,78</t>
+          <t>33,41; 80,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,57; 70,51</t>
+          <t>35,49; 65,5</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>33,98%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,32; 40,95</t>
+          <t>26,22; 39,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,05; 46,52</t>
+          <t>22,08; 43,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,62; 41,24</t>
+          <t>26,15; 38,71</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>41,38%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,05; 51,31</t>
+          <t>24,83; 50,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,77; 54,01</t>
+          <t>35,8; 54,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,04; 49,45</t>
+          <t>33,9; 49,82</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>36,78%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,57; 41,4</t>
+          <t>28,62; 40,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,34; 48,29</t>
+          <t>28,36; 45,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,79; 43,56</t>
+          <t>30,8; 41,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6903-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,83; 44,0</t>
+          <t>25,4; 43,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 37,95</t>
+          <t>13,75; 37,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,03; 67,12</t>
+          <t>39,39; 66,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,64; 59,99</t>
+          <t>26,65; 62,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,36; 54,98</t>
+          <t>22,09; 53,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,06; 45,54</t>
+          <t>16,25; 45,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,13; 67,18</t>
+          <t>22,1; 67,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,41; 80,18</t>
+          <t>32,43; 79,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,48; 43,51</t>
+          <t>27,57; 44,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,7; 36,7</t>
+          <t>17,89; 36,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,56; 63,54</t>
+          <t>39,12; 63,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,49; 65,5</t>
+          <t>33,47; 64,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,57; 37,0</t>
+          <t>25,34; 36,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,2; 30,21</t>
+          <t>18,59; 30,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,01; 43,73</t>
+          <t>31,07; 43,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,22; 39,85</t>
+          <t>26,21; 39,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,87; 40,57</t>
+          <t>24,83; 41,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,56; 46,87</t>
+          <t>28,75; 47,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,09; 52,52</t>
+          <t>33,85; 51,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,08; 43,67</t>
+          <t>21,4; 43,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,05; 36,31</t>
+          <t>26,3; 36,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,26; 34,51</t>
+          <t>24,66; 34,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,17; 44,48</t>
+          <t>33,69; 44,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,15; 38,71</t>
+          <t>26,15; 38,84</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,98; 40,28</t>
+          <t>20,0; 40,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 35,33</t>
+          <t>10,79; 36,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,96; 43,6</t>
+          <t>18,09; 42,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,83; 50,95</t>
+          <t>23,73; 50,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 35,48</t>
+          <t>14,68; 36,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 45,51</t>
+          <t>16,59; 44,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,98; 51,82</t>
+          <t>28,15; 52,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,8; 54,14</t>
+          <t>36,17; 54,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,01; 34,37</t>
+          <t>19,46; 35,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,44; 36,46</t>
+          <t>16,06; 36,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,45; 43,32</t>
+          <t>27,35; 44,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,9; 49,82</t>
+          <t>34,31; 50,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,22; 35,99</t>
+          <t>27,29; 36,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 29,02</t>
+          <t>19,24; 28,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,69; 44,2</t>
+          <t>33,1; 43,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,62; 40,47</t>
+          <t>29,18; 40,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,12; 37,58</t>
+          <t>25,09; 37,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,66; 41,32</t>
+          <t>28,46; 41,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,78; 48,52</t>
+          <t>35,45; 48,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,36; 45,5</t>
+          <t>27,63; 45,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,72; 34,98</t>
+          <t>27,76; 35,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,46; 32,83</t>
+          <t>24,58; 32,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,43; 44,09</t>
+          <t>35,57; 44,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,8; 41,05</t>
+          <t>30,99; 40,91</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente agotado a todas horas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38327</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13936</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29887</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12446</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14215</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11284</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7955</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13437</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52542</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>25219</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>37842</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25883</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>28261; 48423</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7936; 21893</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21895; 36773</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7787; 18233</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8298; 20154</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6163; 17365</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3983; 12197</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8103; 19791</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41045; 65767</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17108; 34708</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28793; 46695</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18140; 34718</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>88956</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>53858</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>85449</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77377</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>38390</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49294</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52858</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>84114</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>127345</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>103152</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>138307</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>161491</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72700; 105755</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40805; 67915</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>71280; 100770</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>62110; 94072</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29442; 49099</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37493; 61734</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42161; 64223</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51000; 104042</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>106645; 146628</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>86320; 121476</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>119230; 157337</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>124293; 184613</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21934</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9481</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19104</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25362</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15148</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13895</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29032</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40663</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37082</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23377</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48136</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>66025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14814; 30161</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4973; 16782</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11491; 27158</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16499; 35453</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9392; 23547</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7684; 20827</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20745; 38637</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32557; 48719</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26867; 48968</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14840; 33307</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>37534; 61648</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54731; 80410</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>149217</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>77275</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>134439</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>115185</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>67753</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>74473</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>89846</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>138213</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>216970</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>151748</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>224285</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>253399</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>128890; 170546</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>62209; 91214</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>115346; 152405</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>97953; 135781</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55237; 83314</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>61107; 89027</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>76669; 105873</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>97629; 159213</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>192224; 242444</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>132229; 174235</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>200880; 251239</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>213549; 281916</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>